--- a/혁신성장 청년인재 집중양성 7기 sap 클라우드/table.xlsx
+++ b/혁신성장 청년인재 집중양성 7기 sap 클라우드/table.xlsx
@@ -1,341 +1,872 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="5" lowestEdited="5" rupBuild="9.103.112.46022"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="25875" windowHeight="10995"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>지점 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>생산 Vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상품 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지점코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지점명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>책임자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지점 전화 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>책임자 연락처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상세 주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우편 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>업체 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>업체명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우편번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>책임자 연락처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사이즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>색상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FK(생산 Vender)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>생산업체 (업체코드)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>재고 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지점코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>STO PO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>생성 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요청한 지점(지점코드)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>STO no.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요청 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요청받는 지점(지점코드)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>STO 출고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>출고 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전재고</t>
+  </si>
+  <si>
+    <t>주소 정보</t>
+  </si>
+  <si>
+    <t>주소 정보???</t>
+  </si>
+  <si>
+    <t>발주 요청 내역</t>
+  </si>
+  <si>
+    <t>지점별 판매 내역</t>
+  </si>
+  <si>
+    <t>입고 내역(Vender =&gt; 본사)</t>
+  </si>
+  <si>
+    <t>Vender</t>
+  </si>
+  <si>
+    <t>발주 no.</t>
+  </si>
+  <si>
+    <t>매출 관리</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="21">
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFECD9"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,19 +885,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -376,23 +904,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFECD9"/>
-      <color rgb="FFFFCC99"/>
-      <color rgb="FFFFFF99"/>
-    </mruColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -682,27 +1244,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView topLeftCell="A47" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
-    <col min="2" max="2" width="7.875" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="8.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="7.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="21.12999916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="21.12999916" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="14.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="21.12999916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="17.250000">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="21.000000" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -717,7 +1279,7 @@
       </c>
       <c r="I2" s="7"/>
       <c r="K2" s="6" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L2" s="7"/>
       <c r="N2" s="6" t="s">
@@ -725,15 +1287,15 @@
       </c>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -753,9 +1315,9 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
@@ -772,7 +1334,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -791,10 +1353,10 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2"/>
@@ -810,7 +1372,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
@@ -829,7 +1391,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
@@ -850,7 +1412,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
@@ -867,7 +1429,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="E10" s="2"/>
@@ -879,7 +1441,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="17.250000">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="E11" s="4"/>
@@ -891,8 +1453,8 @@
       <c r="N11" s="4"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="16" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" ht="17.250000" customHeight="1"/>
+    <row r="17" spans="2:9" ht="21.000000" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
@@ -906,7 +1468,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9">
       <c r="B18" s="9" t="s">
         <v>8</v>
       </c>
@@ -926,7 +1488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9">
       <c r="B19" s="9" t="s">
         <v>29</v>
       </c>
@@ -946,7 +1508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9">
       <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
@@ -966,7 +1528,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9">
       <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
@@ -986,7 +1548,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9">
       <c r="B22" s="9" t="s">
         <v>30</v>
       </c>
@@ -997,14 +1559,12 @@
       <c r="F22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9">
       <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
@@ -1015,14 +1575,12 @@
       <c r="F23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9">
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
         <v>28</v>
@@ -1036,9 +1594,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9">
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
       <c r="H25" s="2"/>
@@ -1046,7 +1606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" ht="17.250000">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="E26" s="4"/>
@@ -1054,8 +1614,152 @@
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
     </row>
+    <row r="32" spans="2:9" ht="17.250000">
+      <c r="B32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="E32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="H32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="2"/>
+      <c r="C36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="2"/>
+      <c r="C37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="2"/>
+      <c r="C38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="2:9" ht="17.250000">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="47" spans="2:9" ht="17.250000">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="2:3" ht="17.250000">
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
@@ -1064,35 +1768,46 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>